--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/48.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/48.xlsx
@@ -479,13 +479,13 @@
         <v>-4.592793210434977</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.625107087545492</v>
+        <v>-8.641996158211319</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.070527407006265</v>
+        <v>-3.060236856972669</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.442656297384403</v>
+        <v>-5.439697436942173</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-3.985392974068455</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.869435643177784</v>
+        <v>-8.88738519037379</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.166651094470218</v>
+        <v>-3.154200314467737</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.370753370177643</v>
+        <v>-5.367781417432571</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-3.471555608607384</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.688673401195951</v>
+        <v>-9.706426563849332</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.051163891103352</v>
+        <v>-3.037613357662166</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.245970631793152</v>
+        <v>-5.241414510404232</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-3.13626786756964</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.45732250103369</v>
+        <v>-10.47563863270926</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.954490326920047</v>
+        <v>-2.942131193037457</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.452017293916237</v>
+        <v>-5.449438110256417</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-2.952016121557406</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.23675965841301</v>
+        <v>-11.25469611330617</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.802030460328147</v>
+        <v>-2.790234295467752</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.005268644048019</v>
+        <v>-5.002427614331364</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-2.907939113080516</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.89754127513777</v>
+        <v>-11.91699643716057</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.770085241394336</v>
+        <v>-2.759126983915811</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.146246561047724</v>
+        <v>-5.140996547608193</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-2.959482468858007</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.39397521429033</v>
+        <v>-12.41497526804846</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.650487054935168</v>
+        <v>-2.639319320611175</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.705873862663426</v>
+        <v>-4.700597664618211</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-3.067720427662882</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.37233682104684</v>
+        <v>-13.39143849089292</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.396522564411365</v>
+        <v>-2.384530015008344</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.622528262772999</v>
+        <v>-4.617631741510193</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-3.179081063219198</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.11867663684228</v>
+        <v>-14.13824962959066</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.372406542576906</v>
+        <v>-2.360191424025575</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.255839044781935</v>
+        <v>-4.248049124591108</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-3.248277745032915</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.81722954726541</v>
+        <v>-14.83555877124383</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.194835639134575</v>
+        <v>-2.184047581592993</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.04107290896626</v>
+        <v>-4.033361542592484</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-3.238306418674654</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.48163773187733</v>
+        <v>-15.49806857194369</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.178247691434108</v>
+        <v>-2.169541310044361</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.523036670124843</v>
+        <v>-3.515704980533477</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-3.121766320887465</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.45320443345897</v>
+        <v>-16.46870572002358</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.014528444398324</v>
+        <v>-2.004683032661346</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.882482661290553</v>
+        <v>-2.876080525200949</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.890411801766003</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.09607577989625</v>
+        <v>-17.11072606677614</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.731053903269271</v>
+        <v>-1.723552013740962</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.520218641659993</v>
+        <v>-2.512258521532224</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.550525630071022</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.00246899793179</v>
+        <v>-18.01645157736675</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.562307211942264</v>
+        <v>-1.556245475726545</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.92332746280286</v>
+        <v>-1.917121711255882</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.124482018425809</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.92004304259416</v>
+        <v>-18.93262474562506</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.394568627934069</v>
+        <v>-1.389672106671264</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.57403791528845</v>
+        <v>-1.563603349923595</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-1.652366076451542</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.7107526727202</v>
+        <v>-19.72271903751754</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.14828931917836</v>
+        <v>-1.144348536023001</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.044794665214516</v>
+        <v>-1.035446760985523</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-1.182196725061208</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.69780756856362</v>
+        <v>-20.70808502629437</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.050358893922249</v>
+        <v>-1.047190556634552</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6848348908840992</v>
+        <v>-0.6745443408505025</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.7655925632840954</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.53913204147578</v>
+        <v>-21.54863705333887</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8997057651225074</v>
+        <v>-0.8957649819671479</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.3156057661417407</v>
+        <v>-0.3054985083479281</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-0.4499632596677076</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.18902086223622</v>
+        <v>-22.19762250520323</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6426776757337413</v>
+        <v>-0.6396402614744608</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06049681759252408</v>
+        <v>0.07069572150622869</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-0.2652287961709598</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.81912721340281</v>
+        <v>-22.82772885636982</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3411750335916317</v>
+        <v>-0.3385172961147613</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3767021158258921</v>
+        <v>0.3881055116010355</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-0.2296705356117833</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.44971797977454</v>
+        <v>-23.45790066905062</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.06928718047750643</v>
+        <v>-0.06890750369509638</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3396901756923325</v>
+        <v>0.3533454475562528</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-0.3431107992617799</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.96077602120132</v>
+        <v>-23.96730908031934</v>
       </c>
       <c r="F23" t="n">
-        <v>0.04604291525525851</v>
+        <v>0.04532283859896357</v>
       </c>
       <c r="G23" t="n">
-        <v>0.599140341106818</v>
+        <v>0.6136466126554505</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-0.5896402067538538</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.34629197067879</v>
+        <v>-24.35169909175242</v>
       </c>
       <c r="F24" t="n">
-        <v>0.02818501417914415</v>
+        <v>0.02653538402108666</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5301569974337633</v>
+        <v>0.54484656122218</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-0.94500688046995</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.61785251622187</v>
+        <v>-24.62403208316316</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3156003384635565</v>
+        <v>0.3143042004822256</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5197748012802745</v>
+        <v>0.5342941651317488</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.37042251828807</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.63453211004223</v>
+        <v>-24.63983449269313</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3291246872990595</v>
+        <v>0.3271084726614337</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3592893530463964</v>
+        <v>0.375078670273518</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.824955146417162</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.61285125653633</v>
+        <v>-24.61574465546435</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1473511546445348</v>
+        <v>0.1455182322466932</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3352649773318291</v>
+        <v>0.3506746177765406</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-2.265257409250384</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.72577236854622</v>
+        <v>-24.72857412135435</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2626157888630911</v>
+        <v>0.2620920967494221</v>
       </c>
       <c r="G28" t="n">
-        <v>0.048504268189503</v>
+        <v>0.06246066301878299</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.650560763191697</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.77177872073204</v>
+        <v>-24.77331052016453</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2082172705557193</v>
+        <v>0.2096574238683092</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.04565557384819088</v>
+        <v>-0.03325716305707629</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.950551994534657</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.54445706649116</v>
+        <v>-24.54737665002486</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08456047021561659</v>
+        <v>0.08389276277068856</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2407701630984345</v>
+        <v>-0.2280968139476436</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.144202227787683</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.07232244141283</v>
+        <v>-24.07554314791189</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08253116327514906</v>
+        <v>0.0827537324234584</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.6996946546094583</v>
+        <v>-0.6893124584559696</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.223821279136643</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.15829959417444</v>
+        <v>-24.15857453253412</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1465394318683478</v>
+        <v>0.1456098783665853</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.7537396807401036</v>
+        <v>-0.7468531294453556</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.193524768562643</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.7350123509986</v>
+        <v>-23.73697619642486</v>
       </c>
       <c r="F33" t="n">
-        <v>0.05998621778169676</v>
+        <v>0.06087649437493414</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.215086248276847</v>
+        <v>-1.21041229616235</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.065783363636287</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.17306452842603</v>
+        <v>-23.17467488167556</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.09680720105081463</v>
+        <v>-0.09485644792739745</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.2875521445058</v>
+        <v>-1.283336422990765</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-2.859398992727539</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.83131614734846</v>
+        <v>-22.83221951624454</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2881381147797994</v>
+        <v>-0.2866194076501591</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.308997336560548</v>
+        <v>-1.3059075530899</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-2.593896463259919</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.10504683180939</v>
+        <v>-22.10687975420723</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4204358349954413</v>
+        <v>-0.4173853284333192</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.511142492436798</v>
+        <v>-1.509361939250324</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.287156071726239</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.29251233284618</v>
+        <v>-21.29557593171115</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3564668433107677</v>
+        <v>-0.3535079828685376</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.639381598771505</v>
+        <v>-1.636448922934959</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-1.952548791045904</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.91697271813411</v>
+        <v>-20.92010177851328</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4106297001669885</v>
+        <v>-0.4092157314600821</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.888501937243869</v>
+        <v>-1.886053676612466</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-1.598989885752163</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.26313002191547</v>
+        <v>-20.26612815926623</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2631318163521026</v>
+        <v>-0.2607882941434336</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.040294096390841</v>
+        <v>-2.038251697147532</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.234730256084241</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.95946714980447</v>
+        <v>-19.96094658002559</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5444330352094289</v>
+        <v>-0.5416705593098247</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.265704274416839</v>
+        <v>-2.263256013785436</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.8650185973341455</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.42327188692158</v>
+        <v>-19.42640094730076</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2668631226619945</v>
+        <v>-0.2640875544595486</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.106488779558608</v>
+        <v>-2.104105980441414</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.4964164255137263</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.86759527741021</v>
+        <v>-18.86879976927164</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.006771434408264457</v>
+        <v>-0.005422927215566672</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.077122744284616</v>
+        <v>-2.077096559678933</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.1357675087701395</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.96399071987996</v>
+        <v>-17.96591528839769</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.01662993844808418</v>
+        <v>-0.01477083144455908</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.96709503120275</v>
+        <v>-1.967055754294225</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2121045733661218</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.62945619766817</v>
+        <v>-17.63156405842569</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03094749007874835</v>
+        <v>0.03196868970040298</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.169881709918245</v>
+        <v>-2.168598664239756</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5395495388909287</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.12021798633639</v>
+        <v>-17.12032272475913</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0007828243314114845</v>
+        <v>0.001751654741699214</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.210926079327057</v>
+        <v>-2.210258371882129</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.8418065133832271</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.74387974115098</v>
+        <v>-16.74291091074069</v>
       </c>
       <c r="F46" t="n">
-        <v>0.01809084868817335</v>
+        <v>0.02091878610198618</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.149418440576627</v>
+        <v>-2.149601732816412</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>1.113568624071444</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.07211368234201</v>
+        <v>-16.07414298928248</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0242966002351515</v>
+        <v>0.02780533739673409</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.439897363726004</v>
+        <v>-2.441180409404493</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>1.34806295619444</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.42219867697589</v>
+        <v>-15.42348172265438</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.00705946507078243</v>
+        <v>-0.001953466962509264</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.373755049769604</v>
+        <v>-2.375522510653237</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>1.539840152591936</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.88541426046512</v>
+        <v>-14.88652710620667</v>
       </c>
       <c r="F49" t="n">
-        <v>0.145334940006909</v>
+        <v>0.1489222309855419</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.55402296759733</v>
+        <v>-2.557492427850387</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>1.682403300467644</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.18525099679245</v>
+        <v>-14.18813130341763</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2905285785216511</v>
+        <v>0.2946133770082696</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.463489693446794</v>
+        <v>-2.469760906507981</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>1.770862773571624</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.42076524925838</v>
+        <v>-13.42189118730277</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2863521339151405</v>
+        <v>0.2905678554301763</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.529776022734453</v>
+        <v>-2.536413820275209</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>1.801272056292417</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.83450502030873</v>
+        <v>-12.83399442049791</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3704963642789139</v>
+        <v>0.3748299165195252</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.541441264566431</v>
+        <v>-2.547293523936683</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>1.770543959614926</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.18208938509984</v>
+        <v>-12.18341170768685</v>
       </c>
       <c r="F53" t="n">
-        <v>0.420103099746214</v>
+        <v>0.4248032364663937</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.560333457567042</v>
+        <v>-2.566735593656646</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>1.677846178180054</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.8046775710814</v>
+        <v>-11.80558093997748</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3100622943615064</v>
+        <v>0.3148540772015782</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.665438464780419</v>
+        <v>-2.672599954434843</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>1.525975107104516</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.35064960083318</v>
+        <v>-11.35099000070707</v>
       </c>
       <c r="F55" t="n">
-        <v>0.06158347872838735</v>
+        <v>0.06574683103205624</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.129717708153709</v>
+        <v>-3.138201520395147</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>1.318823356438942</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.90272264370921</v>
+        <v>-10.90543275039745</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1533867062545705</v>
+        <v>0.1573929509241387</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.199525866905792</v>
+        <v>-3.20815369447849</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>1.061498081720393</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.14696946217057</v>
+        <v>-10.14901186141388</v>
       </c>
       <c r="F57" t="n">
-        <v>0.08835723803971715</v>
+        <v>0.09393455905029247</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.566411469439482</v>
+        <v>-3.573664605213798</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.7609807900663423</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.845676296873929</v>
+        <v>-9.847705603814397</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.08660829713711002</v>
+        <v>-0.08151539133167858</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.599220780360847</v>
+        <v>-3.607023792854516</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.4236329085731168</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.301272160109276</v>
+        <v>-9.302227898216723</v>
       </c>
       <c r="F59" t="n">
-        <v>0.004396299915727879</v>
+        <v>0.009345190389900334</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.88557562811508</v>
+        <v>-3.892030133416051</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.05885691027120306</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.934831695872205</v>
+        <v>-8.937842925525803</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1318160188495901</v>
+        <v>-0.1273122666720364</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.796469414974292</v>
+        <v>-3.804429535102062</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3258481023185381</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.406884583779602</v>
+        <v>-8.409581598164998</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1572674555739056</v>
+        <v>-0.1521483651627907</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.19891371202611</v>
+        <v>-4.206585801491361</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.7245509273533824</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.894478035160127</v>
+        <v>-7.899400741028616</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.09939947701347639</v>
+        <v>-0.09549797076664202</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.155028312900644</v>
+        <v>-4.163197909873881</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-1.128919283996843</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.411764829385687</v>
+        <v>-7.416478058408709</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1577649630818912</v>
+        <v>-0.1515984884434382</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.157934804131507</v>
+        <v>-4.166209139527478</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-1.534236920191409</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.05772277593973</v>
+        <v>-7.06394161978955</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3156581353531076</v>
+        <v>-0.3098451528913812</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.407526465506173</v>
+        <v>-4.414085709229878</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-1.932520677679103</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.685076560155681</v>
+        <v>-6.690627696560574</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2606966480235415</v>
+        <v>-0.2553811730698008</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.693279067329686</v>
+        <v>-4.698463619255009</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-2.315013168251086</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.436074052408894</v>
+        <v>-6.441009850580224</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3786452043246517</v>
+        <v>-0.372609652714616</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.688434915278248</v>
+        <v>-4.692349513827923</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-2.672713344903515</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.271464528779871</v>
+        <v>-6.277644095721167</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4340649222536782</v>
+        <v>-0.4287625396027791</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.805480102683279</v>
+        <v>-4.808124747857307</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-2.992893817836002</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.995112200396718</v>
+        <v>-6.001304859640854</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4027088569477442</v>
+        <v>-0.396843505274651</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.802311765395581</v>
+        <v>-4.80595142558558</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-3.266004083495478</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.861754003650896</v>
+        <v>-5.866781447942119</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6602213615416542</v>
+        <v>-0.653635933212266</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.904300804532627</v>
+        <v>-4.90652649601572</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-3.48132678775542</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.622754015275187</v>
+        <v>-5.630033335655186</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.604029197744966</v>
+        <v>-0.5981638460718727</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.772867176304539</v>
+        <v>-4.773390868418208</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-3.629691766261697</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.500602829761882</v>
+        <v>-5.507698857902098</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.7043686067239545</v>
+        <v>-0.6972594862808973</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.750531707656554</v>
+        <v>-4.750034200148568</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-3.705642344705556</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.477665115183179</v>
+        <v>-5.485808527550732</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7971275723575837</v>
+        <v>-0.7908956362049221</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.651344421327638</v>
+        <v>-4.650925467636703</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.705726186957667</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.511796748691558</v>
+        <v>-5.520398391658572</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8570248578584805</v>
+        <v>-0.8492218453648118</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.465630105517754</v>
+        <v>-4.463574613971602</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.632212162577394</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.748440122555757</v>
+        <v>-5.757028673219929</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7487776979630894</v>
+        <v>-0.7413150853433055</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.351857993823153</v>
+        <v>-4.349213348649125</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.489435392885563</v>
       </c>
       <c r="E75" t="n">
-        <v>-5.949891386381396</v>
+        <v>-5.958859613827978</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.079895129133183</v>
+        <v>-1.072157578153723</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.187300839405498</v>
+        <v>-4.184027763695068</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.285394948727224</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.478584759735978</v>
+        <v>-6.486505602955222</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9910245774435468</v>
+        <v>-0.9844784260226838</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.019693178425721</v>
+        <v>-4.016812871800542</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.030848274008442</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.945364632952037</v>
+        <v>-6.952224999641102</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.049507894237537</v>
+        <v>-1.043590173353077</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.941388115129358</v>
+        <v>-3.938835116075222</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-2.736501822722561</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.521242665748201</v>
+        <v>-7.528050663225898</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.143170228767245</v>
+        <v>-1.134660231920124</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.536299172903512</v>
+        <v>-3.535291065584699</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-2.41667467980815</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.947082907978182</v>
+        <v>-7.952895890439909</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.108436349328146</v>
+        <v>-1.100397675383326</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.327411481063772</v>
+        <v>-3.327437665669456</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-2.083680394180949</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.419296086873558</v>
+        <v>-8.425475653814853</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.292828342551016</v>
+        <v>-1.286177452707419</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.95943921739422</v>
+        <v>-2.959753432662421</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-1.750281150303688</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.361457476272692</v>
+        <v>-9.367139535706</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.215950340264401</v>
+        <v>-1.20911615818102</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.935585041616595</v>
+        <v>-2.936553872026882</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-1.429754172882675</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.18886483126409</v>
+        <v>-10.19311982968766</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.309206813406016</v>
+        <v>-1.302123877568642</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.76147050612448</v>
+        <v>-2.761640706061422</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-1.131154330852641</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.02377407578381</v>
+        <v>-11.02778032045338</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.419666572481658</v>
+        <v>-1.412203959861875</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.385799968383992</v>
+        <v>-2.386873537217013</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.8664713487666958</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.24112257861318</v>
+        <v>-12.24397670063268</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.493742821960144</v>
+        <v>-1.48718357823644</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.282200575997413</v>
+        <v>-2.282410052842881</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.6444705310430187</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.13043034144027</v>
+        <v>-13.13198832547843</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.592943200591903</v>
+        <v>-1.585598418697695</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.937100565392356</v>
+        <v>-1.937846826654334</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.4714626095764358</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.32325696104709</v>
+        <v>-14.32455309902842</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.805064691233549</v>
+        <v>-1.796240479118225</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.694133609255604</v>
+        <v>-1.694199070769812</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.3544975738887069</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.42733085968985</v>
+        <v>-15.42722612126711</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.845375891683223</v>
+        <v>-1.837559786886713</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.278099501854074</v>
+        <v>-1.278387532516592</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2941835702284544</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.84543673429425</v>
+        <v>-16.84283136602874</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.871403389732575</v>
+        <v>-1.861400870361496</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.9730619379446986</v>
+        <v>-0.9723156766827202</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.2908091021472647</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.54068047545231</v>
+        <v>-18.53701463065662</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.09710159842109</v>
+        <v>-2.088054817157457</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.7646717536129448</v>
+        <v>-0.7641742461049592</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.3432250268163963</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.15552438485932</v>
+        <v>-20.15074569432209</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.320089700421369</v>
+        <v>-2.310951273037844</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.4763399681296116</v>
+        <v>-0.475318768507957</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.4459657232975255</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.98358953834669</v>
+        <v>-21.97807767885033</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.531752960463554</v>
+        <v>-2.521226748978806</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.6417743068376622</v>
+        <v>-0.6397449998971947</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.5964576848396367</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.70758397654518</v>
+        <v>-23.70102473282148</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.635535645089917</v>
+        <v>-2.623490726475529</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.4631429268651517</v>
+        <v>-0.4606684816280655</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.7901601674937981</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.78784615967272</v>
+        <v>-25.78050137777851</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.808917011622895</v>
+        <v>-2.79750052354491</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.4592021437097922</v>
+        <v>-0.4574608674318426</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-1.020934601261812</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.05795982630813</v>
+        <v>-28.04848099905072</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.681280151218907</v>
+        <v>-2.67015169380344</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.5939088476483118</v>
+        <v>-0.5921544790675204</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-1.285051802467826</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.33782725856062</v>
+        <v>-30.32885903111404</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.169518308792556</v>
+        <v>-3.15832438986288</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.9809173196497343</v>
+        <v>-0.9773693055796265</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-1.579844105562011</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.5219899570401</v>
+        <v>-32.51251112978269</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.228721702242841</v>
+        <v>-3.218064567729676</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.206170390041631</v>
+        <v>-1.203146068085193</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-1.89591007195661</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.74658168669482</v>
+        <v>-34.73723378246584</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.606696485283473</v>
+        <v>-3.594978874240128</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.441491441318816</v>
+        <v>-1.437930334945866</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.242668578037395</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.2496597900959</v>
+        <v>-37.24150328542551</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.850422794985045</v>
+        <v>-3.840813044699218</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.873013742982107</v>
+        <v>-1.867947021782359</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.600555182590169</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.78413323571145</v>
+        <v>-39.77529593129329</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.743445588465302</v>
+        <v>-3.73615317578246</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.352650257588742</v>
+        <v>-2.346392136830396</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-2.999447445007567</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.35002820814713</v>
+        <v>-42.34183242656821</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.926410520678423</v>
+        <v>-3.918437308247812</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.716550815074517</v>
+        <v>-2.709245310088834</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.396685395621876</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.59154828537621</v>
+        <v>-44.58645537957078</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.165764001230859</v>
+        <v>-4.159361865141255</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.326337912230751</v>
+        <v>-3.317971930714888</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.864716914151166</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.89334532488859</v>
+        <v>-46.89092324886288</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.308902148199451</v>
+        <v>-4.303180811857616</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.60166904099225</v>
+        <v>-3.595410920233905</v>
       </c>
     </row>
   </sheetData>
